--- a/others/量化投资/THS/策略/trades.xlsx
+++ b/others/量化投资/THS/策略/trades.xlsx
@@ -1070,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20241216</t>
+          <t>19700101</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2178,10 +2178,8 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
+      <c r="K28" t="n">
+        <v>2181</v>
       </c>
     </row>
     <row r="29">
@@ -2208,7 +2206,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>20241216</t>
+          <t>19700101</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2223,10 +2221,8 @@
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>600060</t>
-        </is>
+      <c r="K29" t="n">
+        <v>600060</v>
       </c>
     </row>
     <row r="30">
@@ -2253,7 +2249,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>20241216</t>
+          <t>19700101</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2268,10 +2264,8 @@
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>300749</t>
-        </is>
+      <c r="K30" t="n">
+        <v>300749</v>
       </c>
     </row>
     <row r="31">
@@ -2298,7 +2292,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>20241216</t>
+          <t>19700101</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2309,11 +2303,813 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>603028</t>
-        </is>
-      </c>
+      <c r="K31" t="n">
+        <v>603028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-860500</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>300010</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>顺网科技</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>450200</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-79700</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>601288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新奥股份</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21400</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>600803</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-860500</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>300010</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>顺网科技</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>450200</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>未知策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-79700</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>601288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>未知策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新奥股份</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21400</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>600803</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-860500</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>300010</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>顺网科技</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>450200</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-860500</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>300010</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>顺网科技</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>450200</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>顺网科技</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>450200</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-860500</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>未知策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新奥股份</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21400</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>未知策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-79700</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>19700101</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>顺网科技</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>450200</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>20241217</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-860500</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>20241217</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>未知策略</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新奥股份</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21400</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>20241217</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>未知策略</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-79700</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>20241217</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
